--- a/apps/core/fimport/static/fimport/template/import-hr-shift.xlsx
+++ b/apps/core/fimport/static/fimport/template/import-hr-shift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3546C1A-73FD-4B39-9706-8449CF7B5876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8884CD-697D-473C-B83B-0A677FBAB5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A28B6FBF-5A4D-44A5-9537-9A8777902B4B}"/>
   </bookViews>
@@ -36,61 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Check-in Time</t>
-  </si>
-  <si>
-    <t>Check-in Grace</t>
-  </si>
-  <si>
-    <t>Check-in Grace End</t>
-  </si>
-  <si>
-    <t>Check-in Threshold</t>
-  </si>
-  <si>
-    <t>Break-in Time</t>
-  </si>
-  <si>
-    <t>Break-in Grace Start</t>
-  </si>
-  <si>
-    <t>Break-in Grace End</t>
-  </si>
-  <si>
-    <t>Break-in Threshold</t>
-  </si>
-  <si>
-    <t>Break-out Time</t>
-  </si>
-  <si>
-    <t>Break-out Grace Start</t>
-  </si>
-  <si>
-    <t>Break-out Grace End</t>
-  </si>
-  <si>
-    <t>Break-out Threshold</t>
-  </si>
-  <si>
-    <t>Check-out Time</t>
-  </si>
-  <si>
-    <t>Check-out Grace Start</t>
-  </si>
-  <si>
-    <t>Check-out Grace End</t>
-  </si>
-  <si>
-    <t>Check-out Threshold</t>
-  </si>
-  <si>
-    <t>Working Days</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Morning Shift</t>
   </si>
@@ -151,6 +97,51 @@
   <si>
     <t>Minutes
 Format: number</t>
+  </si>
+  <si>
+    <t>Tiêu đề</t>
+  </si>
+  <si>
+    <t>Giờ vào</t>
+  </si>
+  <si>
+    <t>Ngưỡng trễ/ sớm cho giờ vào</t>
+  </si>
+  <si>
+    <t>Nghỉ giữa giờ</t>
+  </si>
+  <si>
+    <t>Ngưỡng trễ/ sớm cho giờ nghỉ</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc giờ nghỉ</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu gia hạn giờ vào</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc gia hạn giờ vào</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu gia hạn giờ nghỉ</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc gia hạn giờ nghỉ</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu gia hạn kết thúc giờ nghỉ</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc gia hạn kết thúc giờ nghỉ</t>
+  </si>
+  <si>
+    <t>Ngưỡng trễ sớm giờ nghỉ</t>
+  </si>
+  <si>
+    <t>Giờ ra</t>
+  </si>
+  <si>
+    <t>Ngày làm việc</t>
   </si>
 </sst>
 </file>
@@ -527,145 +518,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E3BBC0-959C-4144-85E3-60BCBD4D74B1}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="72.08984375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -673,58 +667,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J3">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>10</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="R3">
         <v>10</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/apps/core/fimport/static/fimport/template/import-hr-shift.xlsx
+++ b/apps/core/fimport/static/fimport/template/import-hr-shift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCAdmin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8884CD-697D-473C-B83B-0A677FBAB5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A237FA48-6EA0-4E59-BA60-8813F60241B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A28B6FBF-5A4D-44A5-9537-9A8777902B4B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Morning Shift</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>Ngày làm việc</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu gia hạn giờ ra</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc gia hạn giờ ra</t>
+  </si>
+  <si>
+    <t>Ngưỡng trễ sớm giờ ra</t>
   </si>
 </sst>
 </file>
@@ -519,7 +528,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -591,13 +600,13 @@
         <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
         <v>33</v>
